--- a/pred_ohlcv/54/2019-10-06 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-06 BAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>241.35</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -454,6 +462,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1362,6 +1475,9 @@
         <v>240.6833333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,6 +1504,9 @@
         <v>240.5333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,6 +1533,9 @@
         <v>240.3833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,6 +1562,9 @@
         <v>240.2666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,6 +1591,9 @@
         <v>240.15</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,6 +1620,9 @@
         <v>240.0833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,6 +1649,9 @@
         <v>239.95</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,6 +1678,9 @@
         <v>239.8333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1570,6 +1707,9 @@
         <v>239.7166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1596,6 +1736,9 @@
         <v>239.6</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1622,6 +1765,9 @@
         <v>239.4833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1648,6 +1794,9 @@
         <v>239.35</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,552 +1968,9 @@
         <v>238.4333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>237</v>
-      </c>
-      <c r="C56" t="n">
-        <v>237</v>
-      </c>
-      <c r="D56" t="n">
-        <v>237</v>
-      </c>
-      <c r="E56" t="n">
-        <v>237</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1362.3606</v>
-      </c>
-      <c r="G56" t="n">
-        <v>238.2833333333333</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>236</v>
-      </c>
-      <c r="C57" t="n">
-        <v>236</v>
-      </c>
-      <c r="D57" t="n">
-        <v>236</v>
-      </c>
-      <c r="E57" t="n">
-        <v>236</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2129.2803</v>
-      </c>
-      <c r="G57" t="n">
-        <v>238.1333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>237</v>
-      </c>
-      <c r="C58" t="n">
-        <v>236</v>
-      </c>
-      <c r="D58" t="n">
-        <v>237</v>
-      </c>
-      <c r="E58" t="n">
-        <v>236</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2889.2282</v>
-      </c>
-      <c r="G58" t="n">
-        <v>237.9833333333333</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>236</v>
-      </c>
-      <c r="C59" t="n">
-        <v>236</v>
-      </c>
-      <c r="D59" t="n">
-        <v>236</v>
-      </c>
-      <c r="E59" t="n">
-        <v>236</v>
-      </c>
-      <c r="F59" t="n">
-        <v>40.3763</v>
-      </c>
-      <c r="G59" t="n">
-        <v>237.8166666666667</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>236</v>
-      </c>
-      <c r="C60" t="n">
-        <v>236</v>
-      </c>
-      <c r="D60" t="n">
-        <v>236</v>
-      </c>
-      <c r="E60" t="n">
-        <v>236</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
-      </c>
-      <c r="G60" t="n">
-        <v>237.6666666666667</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>236</v>
-      </c>
-      <c r="C61" t="n">
-        <v>237</v>
-      </c>
-      <c r="D61" t="n">
-        <v>237</v>
-      </c>
-      <c r="E61" t="n">
-        <v>236</v>
-      </c>
-      <c r="F61" t="n">
-        <v>380</v>
-      </c>
-      <c r="G61" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>236</v>
-      </c>
-      <c r="C62" t="n">
-        <v>236</v>
-      </c>
-      <c r="D62" t="n">
-        <v>236</v>
-      </c>
-      <c r="E62" t="n">
-        <v>236</v>
-      </c>
-      <c r="F62" t="n">
-        <v>803.0255</v>
-      </c>
-      <c r="G62" t="n">
-        <v>237.4333333333333</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>235</v>
-      </c>
-      <c r="C63" t="n">
-        <v>235</v>
-      </c>
-      <c r="D63" t="n">
-        <v>235</v>
-      </c>
-      <c r="E63" t="n">
-        <v>235</v>
-      </c>
-      <c r="F63" t="n">
-        <v>22.2128</v>
-      </c>
-      <c r="G63" t="n">
-        <v>237.3166666666667</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>235</v>
-      </c>
-      <c r="C64" t="n">
-        <v>235</v>
-      </c>
-      <c r="D64" t="n">
-        <v>235</v>
-      </c>
-      <c r="E64" t="n">
-        <v>235</v>
-      </c>
-      <c r="F64" t="n">
-        <v>12.134</v>
-      </c>
-      <c r="G64" t="n">
-        <v>237.2166666666667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>235</v>
-      </c>
-      <c r="C65" t="n">
-        <v>235</v>
-      </c>
-      <c r="D65" t="n">
-        <v>235</v>
-      </c>
-      <c r="E65" t="n">
-        <v>235</v>
-      </c>
-      <c r="F65" t="n">
-        <v>54.5573</v>
-      </c>
-      <c r="G65" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>236</v>
-      </c>
-      <c r="C66" t="n">
-        <v>236</v>
-      </c>
-      <c r="D66" t="n">
-        <v>236</v>
-      </c>
-      <c r="E66" t="n">
-        <v>236</v>
-      </c>
-      <c r="F66" t="n">
-        <v>14.8177</v>
-      </c>
-      <c r="G66" t="n">
-        <v>237.0666666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>234</v>
-      </c>
-      <c r="C67" t="n">
-        <v>234</v>
-      </c>
-      <c r="D67" t="n">
-        <v>234</v>
-      </c>
-      <c r="E67" t="n">
-        <v>234</v>
-      </c>
-      <c r="F67" t="n">
-        <v>111.3613</v>
-      </c>
-      <c r="G67" t="n">
-        <v>236.9666666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>234</v>
-      </c>
-      <c r="C68" t="n">
-        <v>232</v>
-      </c>
-      <c r="D68" t="n">
-        <v>234</v>
-      </c>
-      <c r="E68" t="n">
-        <v>232</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4258.6322</v>
-      </c>
-      <c r="G68" t="n">
-        <v>236.7833333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>233</v>
-      </c>
-      <c r="C69" t="n">
-        <v>233</v>
-      </c>
-      <c r="D69" t="n">
-        <v>233</v>
-      </c>
-      <c r="E69" t="n">
-        <v>233</v>
-      </c>
-      <c r="F69" t="n">
-        <v>10481.704</v>
-      </c>
-      <c r="G69" t="n">
-        <v>236.6333333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>232</v>
-      </c>
-      <c r="C70" t="n">
-        <v>231</v>
-      </c>
-      <c r="D70" t="n">
-        <v>232</v>
-      </c>
-      <c r="E70" t="n">
-        <v>231</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G70" t="n">
-        <v>236.4166666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>229</v>
-      </c>
-      <c r="C71" t="n">
-        <v>229</v>
-      </c>
-      <c r="D71" t="n">
-        <v>229</v>
-      </c>
-      <c r="E71" t="n">
-        <v>229</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4057.4067</v>
-      </c>
-      <c r="G71" t="n">
-        <v>236.1666666666667</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>228</v>
-      </c>
-      <c r="C72" t="n">
-        <v>228</v>
-      </c>
-      <c r="D72" t="n">
-        <v>228</v>
-      </c>
-      <c r="E72" t="n">
-        <v>228</v>
-      </c>
-      <c r="F72" t="n">
-        <v>985.3142</v>
-      </c>
-      <c r="G72" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>231</v>
-      </c>
-      <c r="C73" t="n">
-        <v>231</v>
-      </c>
-      <c r="D73" t="n">
-        <v>231</v>
-      </c>
-      <c r="E73" t="n">
-        <v>231</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3549.3816</v>
-      </c>
-      <c r="G73" t="n">
-        <v>235.7166666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>230</v>
-      </c>
-      <c r="C74" t="n">
-        <v>230</v>
-      </c>
-      <c r="D74" t="n">
-        <v>230</v>
-      </c>
-      <c r="E74" t="n">
-        <v>230</v>
-      </c>
-      <c r="F74" t="n">
-        <v>7.3903</v>
-      </c>
-      <c r="G74" t="n">
-        <v>235.5333333333333</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>232</v>
-      </c>
-      <c r="C75" t="n">
-        <v>232</v>
-      </c>
-      <c r="D75" t="n">
-        <v>232</v>
-      </c>
-      <c r="E75" t="n">
-        <v>232</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4248.725</v>
-      </c>
-      <c r="G75" t="n">
-        <v>235.4166666666667</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>232</v>
-      </c>
-      <c r="C76" t="n">
-        <v>231</v>
-      </c>
-      <c r="D76" t="n">
-        <v>232</v>
-      </c>
-      <c r="E76" t="n">
-        <v>231</v>
-      </c>
-      <c r="F76" t="n">
-        <v>562.9435999999999</v>
-      </c>
-      <c r="G76" t="n">
-        <v>235.2833333333333</v>
-      </c>
-      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
